--- a/books.xlsx
+++ b/books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\7thSemester\Databases\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545871DB-07C6-4AA4-B97A-9350F4E4EFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC93539-3BEA-459D-BCCC-8FEF8D4D0344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>booking_id</t>
   </si>
@@ -66,6 +64,18 @@
   </si>
   <si>
     <t>3budget</t>
+  </si>
+  <si>
+    <t>3deluxe</t>
+  </si>
+  <si>
+    <t>1budget</t>
+  </si>
+  <si>
+    <t>3standard</t>
+  </si>
+  <si>
+    <t>2standard</t>
   </si>
 </sst>
 </file>
@@ -106,7 +116,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,6 +495,72 @@
         <v>44675</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>44897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>44925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1">
+        <v>44927</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>44933</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/books.xlsx
+++ b/books.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC93539-3BEA-459D-BCCC-8FEF8D4D0344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52F9456-4A43-4D81-8FDF-C15E0AC641AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,48 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>booking_id</t>
-  </si>
-  <si>
-    <t>type_name</t>
   </si>
   <si>
     <t>booking_date</t>
   </si>
   <si>
-    <t>2deluxe</t>
-  </si>
-  <si>
-    <t>1standard</t>
-  </si>
-  <si>
-    <t>4deluxe</t>
-  </si>
-  <si>
-    <t>4budget</t>
-  </si>
-  <si>
-    <t>1deluxe</t>
-  </si>
-  <si>
-    <t>4standard</t>
-  </si>
-  <si>
-    <t>3budget</t>
-  </si>
-  <si>
-    <t>3deluxe</t>
-  </si>
-  <si>
-    <t>1budget</t>
-  </si>
-  <si>
-    <t>3standard</t>
-  </si>
-  <si>
-    <t>2standard</t>
+    <t>room_id</t>
   </si>
 </sst>
 </file>
@@ -116,7 +83,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -397,7 +364,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -412,18 +379,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>44624</v>
@@ -433,8 +400,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3">
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>44889</v>
@@ -444,8 +411,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
+      <c r="B4">
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>44805</v>
@@ -455,8 +422,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
+      <c r="B5">
+        <v>41</v>
       </c>
       <c r="C5" s="1">
         <v>44822</v>
@@ -466,8 +433,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>44701</v>
@@ -477,8 +444,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7">
+        <v>39</v>
       </c>
       <c r="C7" s="1">
         <v>44683</v>
@@ -488,8 +455,8 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
+      <c r="B8">
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>44675</v>
@@ -499,8 +466,8 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="B9">
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>44897</v>
@@ -510,8 +477,8 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
+      <c r="B10">
+        <v>38</v>
       </c>
       <c r="C10" s="1">
         <v>44908</v>
@@ -521,8 +488,8 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
+      <c r="B11">
+        <v>1</v>
       </c>
       <c r="C11" s="1">
         <v>44924</v>
@@ -532,8 +499,8 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>12</v>
+      <c r="B12">
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>44925</v>
@@ -543,8 +510,8 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13">
+        <v>15</v>
       </c>
       <c r="C13" s="1">
         <v>44927</v>
@@ -554,8 +521,8 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>7</v>
+      <c r="B14">
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>44933</v>

--- a/books.xlsx
+++ b/books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52F9456-4A43-4D81-8FDF-C15E0AC641AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B64A590-480F-49D2-856B-AFAF1D77CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49860" yWindow="1860" windowWidth="21690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,6 +528,28 @@
         <v>44933</v>
       </c>
     </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/books.xlsx
+++ b/books.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Users\apnev\Documents\GitHub\hotel_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B64A590-480F-49D2-856B-AFAF1D77CDD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491AA53D-FA12-4967-B03C-4F6B5700AC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49860" yWindow="1860" windowWidth="21690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43410" yWindow="2910" windowWidth="21690" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -361,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,6 +550,28 @@
         <v>44905</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>44905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
